--- a/Sample Score.xlsx
+++ b/Sample Score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warma\Downloads\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warma\Downloads\Downloads\F5-ICT-SBA-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3C1D3C-C2BE-4112-A1C0-D06EEF027EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B6EDD-05F8-42EE-BD2D-8A5CCF470051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{45F7F24B-C4B8-4ECD-A0F1-30DE62A1661F}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -461,7 +461,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(40,100)</f>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -479,7 +479,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -488,7 +488,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -497,7 +497,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -506,7 +506,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -515,7 +515,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -524,7 +524,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -533,7 +533,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -542,7 +542,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -551,7 +551,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -560,7 +560,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -569,7 +569,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -578,7 +578,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -587,7 +587,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -596,7 +596,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -605,7 +605,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -614,7 +614,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -623,7 +623,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -632,7 +632,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -641,7 +641,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -650,7 +650,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -659,7 +659,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -668,7 +668,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -677,7 +677,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -686,7 +686,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -695,7 +695,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -704,7 +704,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -713,7 +713,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -722,7 +722,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -731,7 +731,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -740,7 +740,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -749,7 +749,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -758,7 +758,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -767,7 +767,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -776,7 +776,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -785,7 +785,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -794,7 +794,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -812,7 +812,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -821,7 +821,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -830,7 +830,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -839,7 +839,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -848,7 +848,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -857,7 +857,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -866,7 +866,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -875,7 +875,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -884,7 +884,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -893,7 +893,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -902,7 +902,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -911,7 +911,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -920,7 +920,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -929,7 +929,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -938,7 +938,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -947,7 +947,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -956,7 +956,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -965,7 +965,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -974,7 +974,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -983,7 +983,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -992,7 +992,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B102" ca="1" si="1">RANDBETWEEN(40,100)</f>
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
